--- a/ECS 154A - Computer Architecture/CPU-Design_3-6.xlsx
+++ b/ECS 154A - Computer Architecture/CPU-Design_3-6.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelyang/Library/CloudStorage/GoogleDrive-letyang@ucdavis.edu/My Drive/LectureNotes/ucd-lecture-notes/ECS 154A - Computer Architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3559A9-1FD7-9C46-A415-8B31EDA9E19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2E00B8-3B3E-6E4A-A7D6-C3CBE239E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17140" xr2:uid="{1FAFB6FB-61B9-3F4D-8349-24C583F8BA88}"/>
+    <workbookView xWindow="660" yWindow="740" windowWidth="28040" windowHeight="17080" activeTab="1" xr2:uid="{1FAFB6FB-61B9-3F4D-8349-24C583F8BA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="177">
   <si>
     <t>Memory</t>
   </si>
@@ -513,6 +514,105 @@
   </si>
   <si>
     <t>0b0011</t>
+  </si>
+  <si>
+    <t>Way0</t>
+  </si>
+  <si>
+    <t>Way1</t>
+  </si>
+  <si>
+    <t>Way2</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Byte0</t>
+  </si>
+  <si>
+    <t>Byte1</t>
+  </si>
+  <si>
+    <t>Byte2</t>
+  </si>
+  <si>
+    <t>Byte3</t>
+  </si>
+  <si>
+    <t>0b0001</t>
+  </si>
+  <si>
+    <t>0b0000</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Tag bits</t>
+  </si>
+  <si>
+    <t>Set bits</t>
+  </si>
+  <si>
+    <t>Offset bits</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>0b0001101</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>0b0010101</t>
+  </si>
+  <si>
+    <t>0b0000100</t>
+  </si>
+  <si>
+    <t>0b0001110</t>
+  </si>
+  <si>
+    <t>0b0011111</t>
+  </si>
+  <si>
+    <t>0b0001100</t>
+  </si>
+  <si>
+    <t>0b0001001</t>
+  </si>
+  <si>
+    <t>(Tag match)</t>
+  </si>
+  <si>
+    <t>(Return previous cache to memory)</t>
+  </si>
+  <si>
+    <t>(In different sets)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +703,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -672,11 +772,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -710,22 +847,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,6 +860,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,6 +922,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>336495</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF5C5B5-861E-EFB1-BB32-A9F8106A6B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12678290" y="2116666"/>
+          <a:ext cx="4938889" cy="2420599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="b"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Adderss Size: 7 bits</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="b"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Cache Data:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>24 bytes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="b"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Number of ways: 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="b"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Blocks Size: 4 bytes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="b"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Number of Blocks:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="b"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Number of Sets:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AA81D4-0CFF-454F-ABFB-9BB28C88948F}">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="125" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1091,10 +1421,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1719,13 +2049,13 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E37" s="10"/>
@@ -1930,11 +2260,11 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="1" t="s">
         <v>127</v>
       </c>
@@ -1943,16 +2273,16 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="19" t="s">
+      <c r="A55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F55" s="11" t="s">
@@ -1969,16 +2299,16 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F56" s="11">
@@ -1995,14 +2325,14 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="11">
@@ -2019,272 +2349,272 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="24" t="s">
+      <c r="G59" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="20">
         <v>9</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="H60" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="I60" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="J60" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="25"/>
+      <c r="D61" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="20">
         <v>10</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I61" s="24" t="s">
+      <c r="I61" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="20">
         <v>8</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J62" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="K62" s="24" t="s">
+      <c r="K62" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22" t="s">
+      <c r="C63" s="25"/>
+      <c r="D63" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22" t="s">
+      <c r="C65" s="25"/>
+      <c r="D65" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22" t="s">
+      <c r="C67" s="25"/>
+      <c r="D67" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22" t="s">
+      <c r="C69" s="25"/>
+      <c r="D69" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22" t="s">
+      <c r="C71" s="25"/>
+      <c r="D71" s="18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="19" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2292,16 +2622,16 @@
       <c r="B75" s="1">
         <v>12</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="20">
         <v>1100</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="20">
         <v>11</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="20">
         <v>0</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2309,16 +2639,16 @@
       <c r="B76" s="1">
         <v>13</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="20">
         <v>1101</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="20">
         <v>11</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="20">
         <v>0</v>
       </c>
-      <c r="F76" s="24">
+      <c r="F76" s="20">
         <v>1</v>
       </c>
     </row>
@@ -2326,16 +2656,16 @@
       <c r="B77" s="1">
         <v>15</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="20">
         <v>1111</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="20">
         <v>11</v>
       </c>
-      <c r="E77" s="24">
-        <v>1</v>
-      </c>
-      <c r="F77" s="24">
+      <c r="E77" s="20">
+        <v>1</v>
+      </c>
+      <c r="F77" s="20">
         <v>1</v>
       </c>
     </row>
@@ -2343,16 +2673,16 @@
       <c r="B78" s="1">
         <v>14</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="20">
         <v>1110</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="20">
         <v>11</v>
       </c>
-      <c r="E78" s="24">
-        <v>1</v>
-      </c>
-      <c r="F78" s="24">
+      <c r="E78" s="20">
+        <v>1</v>
+      </c>
+      <c r="F78" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2360,16 +2690,16 @@
       <c r="B79" s="1">
         <v>4</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="20">
         <v>100</v>
       </c>
-      <c r="D79" s="24">
-        <v>1</v>
-      </c>
-      <c r="E79" s="24">
+      <c r="D79" s="20">
+        <v>1</v>
+      </c>
+      <c r="E79" s="20">
         <v>0</v>
       </c>
-      <c r="F79" s="24">
+      <c r="F79" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2377,16 +2707,16 @@
       <c r="B80" s="1">
         <v>5</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="20">
         <v>101</v>
       </c>
-      <c r="D80" s="24">
-        <v>1</v>
-      </c>
-      <c r="E80" s="24">
+      <c r="D80" s="20">
+        <v>1</v>
+      </c>
+      <c r="E80" s="20">
         <v>0</v>
       </c>
-      <c r="F80" s="24">
+      <c r="F80" s="20">
         <v>1</v>
       </c>
     </row>
@@ -2394,16 +2724,16 @@
       <c r="B81" s="1">
         <v>11</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="20">
         <v>1011</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="20">
         <v>10</v>
       </c>
-      <c r="E81" s="24">
-        <v>1</v>
-      </c>
-      <c r="F81" s="24">
+      <c r="E81" s="20">
+        <v>1</v>
+      </c>
+      <c r="F81" s="20">
         <v>1</v>
       </c>
     </row>
@@ -2411,16 +2741,16 @@
       <c r="B82" s="1">
         <v>9</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="21">
         <v>10</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="21">
         <v>0</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F82" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2428,16 +2758,16 @@
       <c r="B83" s="1">
         <v>3</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="25">
-        <v>1</v>
-      </c>
-      <c r="F83" s="25">
+      <c r="E83" s="21">
+        <v>1</v>
+      </c>
+      <c r="F83" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2460,4 +2790,1297 @@
     <ignoredError sqref="C4:C11 P12:P13 F42:F46 F49:F50 A56:D56 A58:D58 A57:B57 D57 A62:D62 A59:B59 D59 A60:B60 C60:D60 A61:B61 D61 A64:D64 A63:B63 D63 A66:D66 A65:B65 D65 A68:D68 A67:B67 D67 A70:D70 A69:B69 D69 A71:B71 D71" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2948A5FA-8B4C-7B47-B47D-3C35D7E30E5A}">
+  <dimension ref="A1:Y109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="28"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>2</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+      <c r="T5" s="10">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>165</v>
+      </c>
+      <c r="W5" s="10">
+        <v>2</v>
+      </c>
+      <c r="X5" s="10">
+        <v>177</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>198</v>
+      </c>
+      <c r="G6" s="10">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10">
+        <v>140</v>
+      </c>
+      <c r="I6" s="10">
+        <v>333</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
+        <v>153</v>
+      </c>
+      <c r="O6" s="10">
+        <v>115</v>
+      </c>
+      <c r="P6" s="10">
+        <v>196</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>144</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>23</v>
+      </c>
+      <c r="W6" s="10">
+        <v>6</v>
+      </c>
+      <c r="X6" s="10">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="30"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>0</v>
+      </c>
+      <c r="B11" s="21">
+        <v>150</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="21">
+        <v>6</v>
+      </c>
+      <c r="J11" s="21">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21">
+        <v>102</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="H12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="2">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>2</v>
+      </c>
+      <c r="B13" s="21">
+        <v>105</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>3</v>
+      </c>
+      <c r="B14" s="21">
+        <v>135</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="2">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>4</v>
+      </c>
+      <c r="B15" s="21">
+        <v>198</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="2">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="2">
+        <v>144</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>5</v>
+      </c>
+      <c r="B16" s="21">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="2">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>6</v>
+      </c>
+      <c r="B17" s="21">
+        <v>140</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>7</v>
+      </c>
+      <c r="B18" s="21">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>8</v>
+      </c>
+      <c r="B19" s="21">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>9</v>
+      </c>
+      <c r="B20" s="21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>10</v>
+      </c>
+      <c r="B21" s="21">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>11</v>
+      </c>
+      <c r="B22" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>12</v>
+      </c>
+      <c r="B23" s="21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>13</v>
+      </c>
+      <c r="B24" s="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>14</v>
+      </c>
+      <c r="B25" s="21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>15</v>
+      </c>
+      <c r="B26" s="21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>16</v>
+      </c>
+      <c r="B27" s="21">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
+        <v>17</v>
+      </c>
+      <c r="B28" s="21">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <v>18</v>
+      </c>
+      <c r="B29" s="21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
+        <v>19</v>
+      </c>
+      <c r="B30" s="21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>20</v>
+      </c>
+      <c r="B31" s="21">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>21</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>22</v>
+      </c>
+      <c r="B33" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>23</v>
+      </c>
+      <c r="B34" s="21">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>24</v>
+      </c>
+      <c r="B35" s="21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>25</v>
+      </c>
+      <c r="B36" s="21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>26</v>
+      </c>
+      <c r="B37" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>27</v>
+      </c>
+      <c r="B38" s="21">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
+        <v>28</v>
+      </c>
+      <c r="B39" s="21">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
+        <v>29</v>
+      </c>
+      <c r="B40" s="21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>30</v>
+      </c>
+      <c r="B41" s="21">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>31</v>
+      </c>
+      <c r="B42" s="21">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
+        <v>32</v>
+      </c>
+      <c r="B43" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <v>33</v>
+      </c>
+      <c r="B44" s="21">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
+        <v>34</v>
+      </c>
+      <c r="B45" s="21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
+        <v>35</v>
+      </c>
+      <c r="B46" s="21">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
+        <v>36</v>
+      </c>
+      <c r="B47" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
+        <v>37</v>
+      </c>
+      <c r="B48" s="21">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
+        <v>38</v>
+      </c>
+      <c r="B49" s="21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
+        <v>39</v>
+      </c>
+      <c r="B50" s="21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>40</v>
+      </c>
+      <c r="B51" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>41</v>
+      </c>
+      <c r="B52" s="21">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>42</v>
+      </c>
+      <c r="B53" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <v>43</v>
+      </c>
+      <c r="B54" s="21">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
+        <v>44</v>
+      </c>
+      <c r="B55" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="21">
+        <v>45</v>
+      </c>
+      <c r="B56" s="21">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="21">
+        <v>46</v>
+      </c>
+      <c r="B57" s="21">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="21">
+        <v>47</v>
+      </c>
+      <c r="B58" s="21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="21">
+        <v>48</v>
+      </c>
+      <c r="B59" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="21">
+        <v>49</v>
+      </c>
+      <c r="B60" s="21">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="21">
+        <v>50</v>
+      </c>
+      <c r="B61" s="21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="21">
+        <v>51</v>
+      </c>
+      <c r="B62" s="21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="21">
+        <v>52</v>
+      </c>
+      <c r="B63" s="21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="21">
+        <v>53</v>
+      </c>
+      <c r="B64" s="21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="21">
+        <v>54</v>
+      </c>
+      <c r="B65" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="21">
+        <v>55</v>
+      </c>
+      <c r="B66" s="21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="21">
+        <v>56</v>
+      </c>
+      <c r="B67" s="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="21">
+        <v>57</v>
+      </c>
+      <c r="B68" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="21">
+        <v>58</v>
+      </c>
+      <c r="B69" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="21">
+        <v>59</v>
+      </c>
+      <c r="B70" s="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="21">
+        <v>60</v>
+      </c>
+      <c r="B71" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="21">
+        <v>61</v>
+      </c>
+      <c r="B72" s="21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="21">
+        <v>62</v>
+      </c>
+      <c r="B73" s="21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="21">
+        <v>63</v>
+      </c>
+      <c r="B74" s="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="21">
+        <v>64</v>
+      </c>
+      <c r="B75" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="21">
+        <v>65</v>
+      </c>
+      <c r="B76" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="21">
+        <v>66</v>
+      </c>
+      <c r="B77" s="21">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="21">
+        <v>67</v>
+      </c>
+      <c r="B78" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="21">
+        <v>68</v>
+      </c>
+      <c r="B79" s="21">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="21">
+        <v>69</v>
+      </c>
+      <c r="B80" s="21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="21">
+        <v>70</v>
+      </c>
+      <c r="B81" s="21">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="21">
+        <v>71</v>
+      </c>
+      <c r="B82" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="21">
+        <v>72</v>
+      </c>
+      <c r="B83" s="21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="21">
+        <v>73</v>
+      </c>
+      <c r="B84" s="21">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="21">
+        <v>74</v>
+      </c>
+      <c r="B85" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="21">
+        <v>75</v>
+      </c>
+      <c r="B86" s="21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="21">
+        <v>76</v>
+      </c>
+      <c r="B87" s="21">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="21">
+        <v>77</v>
+      </c>
+      <c r="B88" s="21">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="21">
+        <v>78</v>
+      </c>
+      <c r="B89" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="21">
+        <v>79</v>
+      </c>
+      <c r="B90" s="21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="21">
+        <v>80</v>
+      </c>
+      <c r="B91" s="21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="21">
+        <v>81</v>
+      </c>
+      <c r="B92" s="21">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="21">
+        <v>82</v>
+      </c>
+      <c r="B93" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="21">
+        <v>83</v>
+      </c>
+      <c r="B94" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="21">
+        <v>84</v>
+      </c>
+      <c r="B95" s="21">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="21">
+        <v>85</v>
+      </c>
+      <c r="B96" s="21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>86</v>
+      </c>
+      <c r="B97" s="21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="21">
+        <v>87</v>
+      </c>
+      <c r="B98" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="21">
+        <v>88</v>
+      </c>
+      <c r="B99" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="21">
+        <v>89</v>
+      </c>
+      <c r="B100" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="21">
+        <v>90</v>
+      </c>
+      <c r="B101" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="21">
+        <v>91</v>
+      </c>
+      <c r="B102" s="21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="21">
+        <v>92</v>
+      </c>
+      <c r="B103" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="21">
+        <v>93</v>
+      </c>
+      <c r="B104" s="21">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="21">
+        <v>94</v>
+      </c>
+      <c r="B105" s="21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="21">
+        <v>95</v>
+      </c>
+      <c r="B106" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="21">
+        <v>96</v>
+      </c>
+      <c r="B107" s="21">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="21">
+        <v>97</v>
+      </c>
+      <c r="B108" s="21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="21">
+        <v>98</v>
+      </c>
+      <c r="B109" s="21">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>